--- a/Team-Data/2013-14/3-2-2013-14.xlsx
+++ b/Team-Data/2013-14/3-2-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,70 +733,70 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>0.448</v>
+        <v>0.456</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J2" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K2" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L2" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M2" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O2" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="P2" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.779</v>
       </c>
       <c r="R2" t="n">
         <v>9</v>
       </c>
       <c r="S2" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T2" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U2" t="n">
         <v>25.2</v>
       </c>
       <c r="V2" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W2" t="n">
         <v>8.6</v>
       </c>
       <c r="X2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z2" t="n">
         <v>18.9</v>
@@ -738,13 +805,13 @@
         <v>19.4</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -756,10 +823,10 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
@@ -783,10 +850,10 @@
         <v>22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
@@ -798,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -807,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
         <v>4</v>
@@ -816,7 +883,7 @@
         <v>26</v>
       </c>
       <c r="BB2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -980,7 +1047,7 @@
         <v>26</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>22</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>16</v>
@@ -1132,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -1212,25 +1279,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" t="n">
         <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>0.458</v>
+        <v>0.466</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J5" t="n">
-        <v>81.3</v>
+        <v>81.5</v>
       </c>
       <c r="K5" t="n">
         <v>0.436</v>
@@ -1239,34 +1306,34 @@
         <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="P5" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.729</v>
+        <v>0.728</v>
       </c>
       <c r="R5" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S5" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T5" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
         <v>21</v>
       </c>
       <c r="V5" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="W5" t="n">
         <v>6.2</v>
@@ -1275,22 +1342,22 @@
         <v>5.1</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="AB5" t="n">
         <v>95</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2</v>
+        <v>-1.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>27</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1329,16 +1396,16 @@
         <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR5" t="n">
         <v>27</v>
       </c>
       <c r="AS5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU5" t="n">
         <v>19</v>
@@ -1353,13 +1420,13 @@
         <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -1394,31 +1461,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" t="n">
         <v>26</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
       </c>
       <c r="I6" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J6" t="n">
-        <v>80.59999999999999</v>
+        <v>80.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.429</v>
+        <v>0.428</v>
       </c>
       <c r="L6" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
         <v>17.6</v>
@@ -1427,13 +1494,13 @@
         <v>0.344</v>
       </c>
       <c r="O6" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R6" t="n">
         <v>12.1</v>
@@ -1445,10 +1512,10 @@
         <v>45.2</v>
       </c>
       <c r="U6" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V6" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1457,25 +1524,25 @@
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.3</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>12</v>
@@ -1502,7 +1569,7 @@
         <v>27</v>
       </c>
       <c r="AN6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
@@ -1517,7 +1584,7 @@
         <v>6</v>
       </c>
       <c r="AS6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT6" t="n">
         <v>7</v>
@@ -1526,13 +1593,13 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AW6" t="n">
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>20</v>
@@ -1669,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
@@ -1678,13 +1745,13 @@
         <v>30</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO7" t="n">
         <v>15</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" t="n">
         <v>36</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K8" t="n">
         <v>0.473</v>
@@ -1785,37 +1852,37 @@
         <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="N8" t="n">
         <v>0.377</v>
       </c>
       <c r="O8" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P8" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8</v>
+        <v>0.802</v>
       </c>
       <c r="R8" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S8" t="n">
         <v>30.3</v>
       </c>
       <c r="T8" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U8" t="n">
         <v>23.7</v>
       </c>
       <c r="V8" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X8" t="n">
         <v>4.2</v>
@@ -1827,28 +1894,28 @@
         <v>20.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB8" t="n">
         <v>104.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1890,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
@@ -1902,13 +1969,13 @@
         <v>3</v>
       </c>
       <c r="AZ8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA8" t="n">
         <v>24</v>
       </c>
       <c r="BB8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2036,7 +2103,7 @@
         <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK9" t="n">
         <v>22</v>
@@ -2069,10 +2136,10 @@
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW9" t="n">
         <v>24</v>
@@ -2084,7 +2151,7 @@
         <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
         <v>5</v>
@@ -2263,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
@@ -2275,7 +2342,7 @@
         <v>15</v>
       </c>
       <c r="BC10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" t="n">
         <v>36</v>
       </c>
       <c r="F11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2322,10 +2389,10 @@
         <v>38.8</v>
       </c>
       <c r="J11" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L11" t="n">
         <v>9.199999999999999</v>
@@ -2334,7 +2401,7 @@
         <v>24.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O11" t="n">
         <v>16.5</v>
@@ -2343,13 +2410,13 @@
         <v>22.1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R11" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S11" t="n">
-        <v>34.5</v>
+        <v>34.6</v>
       </c>
       <c r="T11" t="n">
         <v>45.8</v>
@@ -2373,16 +2440,16 @@
         <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,13 +2461,13 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK11" t="n">
         <v>10</v>
@@ -2436,7 +2503,7 @@
         <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW11" t="n">
         <v>13</v>
@@ -2448,16 +2515,16 @@
         <v>10</v>
       </c>
       <c r="AZ11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB11" t="n">
         <v>10</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>4.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2576,10 +2643,10 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
         <v>14</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
       </c>
       <c r="AJ12" t="n">
         <v>28</v>
@@ -2615,7 +2682,7 @@
         <v>6</v>
       </c>
       <c r="AU12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
@@ -2624,7 +2691,7 @@
         <v>18</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
         <v>20</v>
@@ -2639,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -2668,61 +2735,61 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E13" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" t="n">
         <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.78</v>
+        <v>0.776</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J13" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L13" t="n">
         <v>6.8</v>
       </c>
       <c r="M13" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="N13" t="n">
         <v>0.353</v>
       </c>
       <c r="O13" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P13" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q13" t="n">
         <v>0.781</v>
       </c>
       <c r="R13" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S13" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="T13" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U13" t="n">
         <v>20.5</v>
       </c>
       <c r="V13" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W13" t="n">
         <v>7.2</v>
@@ -2731,22 +2798,22 @@
         <v>5.7</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z13" t="n">
         <v>20.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>99.09999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2767,7 +2834,7 @@
         <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL13" t="n">
         <v>21</v>
@@ -2782,7 +2849,7 @@
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2794,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
         <v>24</v>
@@ -2806,16 +2873,16 @@
         <v>21</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
         <v>19</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2943,7 +3010,7 @@
         <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ14" t="n">
         <v>23</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
@@ -2967,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR14" t="n">
         <v>21</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -3110,13 +3177,13 @@
         <v>-5.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
         <v>25</v>
@@ -3137,7 +3204,7 @@
         <v>2</v>
       </c>
       <c r="AM15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN15" t="n">
         <v>3</v>
@@ -3173,7 +3240,7 @@
         <v>3</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -3292,13 +3359,13 @@
         <v>0.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -3307,13 +3374,13 @@
         <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>21</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3340,19 +3407,19 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU16" t="n">
         <v>13</v>
       </c>
       <c r="AV16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>21</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3544,7 @@
         <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
@@ -3504,7 +3571,7 @@
         <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO17" t="n">
         <v>14</v>
@@ -3546,7 +3613,7 @@
         <v>12</v>
       </c>
       <c r="BB17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3695,7 +3762,7 @@
         <v>27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR18" t="n">
         <v>12</v>
@@ -3722,7 +3789,7 @@
         <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>4.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3877,16 +3944,16 @@
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR19" t="n">
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU19" t="n">
         <v>8</v>
@@ -3904,7 +3971,7 @@
         <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-2.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4032,7 +4099,7 @@
         <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
@@ -4041,7 +4108,7 @@
         <v>14</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>27</v>
@@ -4059,7 +4126,7 @@
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>7</v>
@@ -4068,7 +4135,7 @@
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU20" t="n">
         <v>17</v>
@@ -4089,13 +4156,13 @@
         <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB20" t="n">
         <v>20</v>
       </c>
       <c r="BC20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" t="n">
-        <v>0.35</v>
+        <v>0.356</v>
       </c>
       <c r="H21" t="n">
         <v>48.6</v>
@@ -4151,10 +4218,10 @@
         <v>9</v>
       </c>
       <c r="M21" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.365</v>
+        <v>0.367</v>
       </c>
       <c r="O21" t="n">
         <v>14.8</v>
@@ -4163,16 +4230,16 @@
         <v>19.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R21" t="n">
         <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T21" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U21" t="n">
         <v>20.3</v>
@@ -4181,28 +4248,28 @@
         <v>13.2</v>
       </c>
       <c r="W21" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X21" t="n">
         <v>4.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z21" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>-3</v>
+        <v>-2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4229,7 +4296,7 @@
         <v>7</v>
       </c>
       <c r="AM21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AN21" t="n">
         <v>11</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4259,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX21" t="n">
         <v>20</v>
@@ -4271,13 +4338,13 @@
         <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB21" t="n">
         <v>21</v>
       </c>
       <c r="BC21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="n">
         <v>15</v>
       </c>
       <c r="G22" t="n">
-        <v>0.75</v>
+        <v>0.746</v>
       </c>
       <c r="H22" t="n">
         <v>48.2</v>
@@ -4327,7 +4394,7 @@
         <v>82.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L22" t="n">
         <v>7.5</v>
@@ -4336,16 +4403,16 @@
         <v>20.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O22" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="P22" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.805</v>
+        <v>0.803</v>
       </c>
       <c r="R22" t="n">
         <v>11.1</v>
@@ -4369,22 +4436,22 @@
         <v>6.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.1</v>
+        <v>104.9</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4393,7 +4460,7 @@
         <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
         <v>26</v>
@@ -4402,7 +4469,7 @@
         <v>6</v>
       </c>
       <c r="AJ22" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK22" t="n">
         <v>4</v>
@@ -4435,7 +4502,7 @@
         <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
@@ -4450,16 +4517,16 @@
         <v>4</v>
       </c>
       <c r="AZ22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -4488,22 +4555,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" t="n">
         <v>43</v>
       </c>
       <c r="G23" t="n">
-        <v>0.306</v>
+        <v>0.295</v>
       </c>
       <c r="H23" t="n">
         <v>48.7</v>
       </c>
       <c r="I23" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J23" t="n">
         <v>83</v>
@@ -4512,22 +4579,22 @@
         <v>0.442</v>
       </c>
       <c r="L23" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O23" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P23" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R23" t="n">
         <v>9.5</v>
@@ -4548,7 +4615,7 @@
         <v>7.7</v>
       </c>
       <c r="X23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y23" t="n">
         <v>5.8</v>
@@ -4557,13 +4624,13 @@
         <v>19.9</v>
       </c>
       <c r="AA23" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5</v>
+        <v>-5.2</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4578,7 +4645,7 @@
         <v>28</v>
       </c>
       <c r="AH23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI23" t="n">
         <v>22</v>
@@ -4587,43 +4654,43 @@
         <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM23" t="n">
         <v>20</v>
       </c>
-      <c r="AM23" t="n">
-        <v>21</v>
-      </c>
       <c r="AN23" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AO23" t="n">
         <v>23</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
         <v>12</v>
       </c>
       <c r="AW23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX23" t="n">
         <v>25</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" t="n">
-        <v>0.25</v>
+        <v>0.254</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
       </c>
       <c r="I24" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J24" t="n">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.433</v>
+        <v>0.434</v>
       </c>
       <c r="L24" t="n">
         <v>6.7</v>
@@ -4700,16 +4767,16 @@
         <v>21.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.306</v>
+        <v>0.308</v>
       </c>
       <c r="O24" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P24" t="n">
         <v>23.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.714</v>
+        <v>0.715</v>
       </c>
       <c r="R24" t="n">
         <v>11.9</v>
@@ -4718,13 +4785,13 @@
         <v>32.1</v>
       </c>
       <c r="T24" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U24" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="V24" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="W24" t="n">
         <v>9.199999999999999</v>
@@ -4733,7 +4800,7 @@
         <v>4.1</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Z24" t="n">
         <v>21.8</v>
@@ -4742,13 +4809,13 @@
         <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="AC24" t="n">
         <v>-10.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4784,7 +4851,7 @@
         <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4814,13 +4881,13 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
         <v>13</v>
       </c>
       <c r="BB24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -4852,46 +4919,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="n">
         <v>24</v>
       </c>
       <c r="G25" t="n">
-        <v>0.593</v>
+        <v>0.586</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J25" t="n">
         <v>84.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L25" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.372</v>
+        <v>0.367</v>
       </c>
       <c r="O25" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P25" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.759</v>
       </c>
       <c r="R25" t="n">
         <v>11.6</v>
@@ -4903,7 +4970,7 @@
         <v>43.3</v>
       </c>
       <c r="U25" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V25" t="n">
         <v>15.2</v>
@@ -4924,34 +4991,34 @@
         <v>21.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.3</v>
+        <v>104.9</v>
       </c>
       <c r="AC25" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
       </c>
       <c r="AF25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
         <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ25" t="n">
         <v>9</v>
       </c>
       <c r="AK25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
         <v>4</v>
@@ -4960,7 +5027,7 @@
         <v>2</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO25" t="n">
         <v>10</v>
@@ -4996,13 +5063,13 @@
         <v>9</v>
       </c>
       <c r="AZ25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -5124,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -5294,13 +5361,13 @@
         <v>-2.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5321,10 +5388,10 @@
         <v>24</v>
       </c>
       <c r="AM27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5333,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="AQ27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>8</v>
@@ -5366,7 +5433,7 @@
         <v>4</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E28" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.729</v>
+        <v>0.724</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5425,22 +5492,22 @@
         <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="N28" t="n">
         <v>0.39</v>
       </c>
       <c r="O28" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="P28" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.786</v>
+        <v>0.784</v>
       </c>
       <c r="R28" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="S28" t="n">
         <v>33.4</v>
@@ -5464,19 +5531,19 @@
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB28" t="n">
-        <v>104</v>
+        <v>103.8</v>
       </c>
       <c r="AC28" t="n">
         <v>6</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5494,22 +5561,22 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP28" t="n">
         <v>29</v>
@@ -5518,7 +5585,7 @@
         <v>4</v>
       </c>
       <c r="AR28" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
         <v>6</v>
@@ -5539,7 +5606,7 @@
         <v>12</v>
       </c>
       <c r="AY28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" t="n">
         <v>26</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.552</v>
       </c>
       <c r="H29" t="n">
         <v>48.7</v>
@@ -5598,16 +5665,16 @@
         <v>36.4</v>
       </c>
       <c r="J29" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L29" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M29" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="N29" t="n">
         <v>0.363</v>
@@ -5619,7 +5686,7 @@
         <v>24.6</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R29" t="n">
         <v>11.8</v>
@@ -5628,16 +5695,16 @@
         <v>31.3</v>
       </c>
       <c r="T29" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U29" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V29" t="n">
         <v>14.1</v>
       </c>
       <c r="W29" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X29" t="n">
         <v>4.3</v>
@@ -5646,22 +5713,22 @@
         <v>4.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA29" t="n">
         <v>22</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>12</v>
@@ -5673,7 +5740,7 @@
         <v>4</v>
       </c>
       <c r="AI29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ29" t="n">
         <v>18</v>
@@ -5697,7 +5764,7 @@
         <v>9</v>
       </c>
       <c r="AQ29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR29" t="n">
         <v>10</v>
@@ -5721,16 +5788,16 @@
         <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E30" t="n">
         <v>21</v>
       </c>
       <c r="F30" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" t="n">
-        <v>0.356</v>
+        <v>0.362</v>
       </c>
       <c r="H30" t="n">
         <v>48.2</v>
@@ -5789,25 +5856,25 @@
         <v>6.8</v>
       </c>
       <c r="M30" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N30" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O30" t="n">
         <v>16.3</v>
       </c>
       <c r="P30" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="R30" t="n">
         <v>10.8</v>
       </c>
       <c r="S30" t="n">
-        <v>30.8</v>
+        <v>30.7</v>
       </c>
       <c r="T30" t="n">
         <v>41.5</v>
@@ -5819,7 +5886,7 @@
         <v>14.6</v>
       </c>
       <c r="W30" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X30" t="n">
         <v>4.7</v>
@@ -5828,7 +5895,7 @@
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA30" t="n">
         <v>20.4</v>
@@ -5837,22 +5904,22 @@
         <v>94.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG30" t="n">
         <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5861,13 +5928,13 @@
         <v>26</v>
       </c>
       <c r="AK30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL30" t="n">
         <v>22</v>
       </c>
       <c r="AM30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN30" t="n">
         <v>17</v>
@@ -5900,13 +5967,13 @@
         <v>26</v>
       </c>
       <c r="AX30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY30" t="n">
         <v>16</v>
       </c>
-      <c r="AY30" t="n">
-        <v>18</v>
-      </c>
       <c r="AZ30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6049,16 +6116,16 @@
         <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN31" t="n">
         <v>2</v>
       </c>
       <c r="AO31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ31" t="n">
         <v>26</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-2-2013-14</t>
+          <t>2014-03-02</t>
         </is>
       </c>
     </row>
